--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-department-ssmix-vs.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-department-ssmix-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T08:24:08+00:00</t>
+    <t>2022-08-18T01:06:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-department-ssmix-vs.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-department-ssmix-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-18T01:06:26+00:00</t>
+    <t>2022-08-18T06:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-department-ssmix-vs.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-department-ssmix-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-18T06:30:33+00:00</t>
+    <t>2022-08-18T06:58:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-department-ssmix-vs.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-department-ssmix-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T08:52:30+00:00</t>
+    <t>2022-08-31T10:13:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-department-ssmix-vs.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-department-ssmix-vs.xlsx
@@ -7,14 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from JP Core Departme" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from JP Core Departme 2" r:id="rId5" sheetId="3"/>
+    <sheet name="Include ValueSets" r:id="rId4" sheetId="2"/>
+    <sheet name="Include ValueSets 2" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Property</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP Core Department SS-MIX2 ValueSet</t>
+    <t>JP Core Department SS-MIX ValueSet</t>
   </si>
   <si>
     <t>Status</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T10:13:48+00:00</t>
+    <t>2022-09-01T00:29:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -97,22 +97,13 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Codes</t>
-  </si>
-  <si>
-    <t>All codes</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>System URI</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_Department_SsMix2Digits_CS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_Department_SsMix3Digits_CS</t>
+    <t>ValueSet URL</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_Department_SsMix2Digits_VS</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_Department_SsMix3Digits_VS</t>
   </si>
 </sst>
 </file>
@@ -379,7 +370,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,22 +390,6 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -422,7 +397,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -439,23 +414,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-department-ssmix-vs.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-department-ssmix-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T00:29:56+00:00</t>
+    <t>2022-09-01T02:21:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
